--- a/Registros/15-11-2025.xlsx
+++ b/Registros/15-11-2025.xlsx
@@ -1,123 +1,281 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147AE5D-EE97-4F51-8E40-838B6BC53A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Docentes" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Mañana" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Tarde" state="visible" r:id="rId6"/>
+    <sheet name="Mañana" sheetId="1" r:id="rId1"/>
+    <sheet name="Tarde" sheetId="2" r:id="rId2"/>
+    <sheet name="Docentes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+  <si>
+    <t>REGISTRO DE ASISTENCIA - ANUAL - MAÑANA</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>ALUMNO</t>
+  </si>
+  <si>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>DÍAS ASISTENCIA</t>
+  </si>
+  <si>
+    <t>SÁBADO 15</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ PEÑA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>MAÑANA</t>
+  </si>
+  <si>
+    <t>L, M, MI, J, V, S</t>
+  </si>
+  <si>
+    <t>F. JUSTIFICADA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ MORA SOFIA VALENTINA</t>
+  </si>
+  <si>
+    <t>L, M, MI, J</t>
+  </si>
+  <si>
+    <t>01:04P.M.</t>
+  </si>
+  <si>
+    <t>MARTINEZ CHAVEZ LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t>01:02P.M.</t>
+  </si>
+  <si>
+    <t>PEREZ GOMEZ JUAN GABRIEL</t>
+  </si>
+  <si>
+    <t>01:00P.M.</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ DIAZ ANA SOFIA</t>
+  </si>
+  <si>
+    <t>L, M, MI, J, V</t>
+  </si>
+  <si>
+    <t>01:00P.M. (J)</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - SEMIANUAL - MAÑANA</t>
+  </si>
+  <si>
+    <t>CASTRO LEIVA JAVIER EDUARDO</t>
+  </si>
+  <si>
+    <t>MI, J, V, S</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>FLORES MENDOZA MARIANA</t>
+  </si>
+  <si>
+    <t>QUISPE MAMANI DIEGO ALONSO</t>
+  </si>
+  <si>
+    <t>URIONDO MANINI CARLA DAYDAMIA</t>
+  </si>
+  <si>
+    <t>VASQUEZ ORTIZ GABRIELA</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - ANUAL - TARDE</t>
+  </si>
+  <si>
+    <t>GONZALES RUIZ MATEO</t>
+  </si>
+  <si>
+    <t>TARDE</t>
+  </si>
+  <si>
+    <t>LOPEZ CASTILLO CAMILA ANDREA</t>
+  </si>
+  <si>
+    <t>PAREDES RAMOS LUCIA</t>
+  </si>
+  <si>
+    <t>ROMERO VARGAS DANIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>SILVA FLORES VALERIA</t>
+  </si>
+  <si>
+    <t>NO ASISTE</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - SEMIANUAL - TARDE</t>
+  </si>
+  <si>
+    <t>ALIAGA URIONDO JHERSON LEONARDO</t>
+  </si>
+  <si>
+    <t>BENITES GUERRA RICARDO MANUEL</t>
+  </si>
+  <si>
+    <t>ESPINOZA REYES ALEJANDRA PAOLA</t>
+  </si>
+  <si>
+    <t>SALAZAR TORRES SEBASTIAN</t>
+  </si>
   <si>
     <t>REGISTRO DE ASISTENCIA - DOCENTES</t>
   </si>
   <si>
-    <t>N°</t>
-  </si>
-  <si>
     <t>DOCENTE</t>
   </si>
   <si>
-    <t>TURNO</t>
-  </si>
-  <si>
-    <t>DÍAS ASISTENCIA</t>
-  </si>
-  <si>
-    <t>SÁBADO 15</t>
-  </si>
-  <si>
-    <t>URIONDO MANINI CARLA DAYDAMIA</t>
+    <t>ALIAGA PEREZ ALAN OSCAR</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>L, M, MI, J, V, S</t>
-  </si>
-  <si>
-    <t>11:21A.M.</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ASISTENCIA - SEMIANUAL - MAÑANA</t>
-  </si>
-  <si>
-    <t>ALUMNO</t>
-  </si>
-  <si>
-    <t>ALIAGA PEREZ ALAN OSCAR</t>
-  </si>
-  <si>
-    <t>MAÑANA</t>
-  </si>
-  <si>
-    <t>11:22A.M.</t>
-  </si>
-  <si>
-    <t>ALIAGA URIONDO JHERSON LEONARDO</t>
-  </si>
-  <si>
-    <t>11:21A.M. (J)</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ASISTENCIA - SEMIANUAL - TARDE</t>
-  </si>
-  <si>
-    <t>TARDE</t>
+    <t>01:36P.M.</t>
+  </si>
+  <si>
+    <t>SANCHEZ SOLANO CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>TORRES MENDOZA ISABEL CRISTINA</t>
+  </si>
+  <si>
+    <t>L, MI, V</t>
+  </si>
+  <si>
+    <t>JHERSON LEONARDO ALIAGA URIONDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF8C0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF8C0000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF404040"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -127,26 +285,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF404040"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,21 +297,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,17 +329,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,9 +691,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -547,62 +707,245 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -611,79 +954,230 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -692,47 +1186,98 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -740,6 +1285,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>